--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_2.xlsx
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>228</v>
+        <v>122</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -570,7 +570,7 @@
         <v>2</v>
       </c>
       <c r="F3">
-        <v>229</v>
+        <v>123</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>230</v>
+        <v>124</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -729,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="F5">
-        <v>231</v>
+        <v>125</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -811,7 +811,7 @@
         <v>5</v>
       </c>
       <c r="F6">
-        <v>232</v>
+        <v>126</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -893,7 +893,7 @@
         <v>6</v>
       </c>
       <c r="F7">
-        <v>233</v>
+        <v>127</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>7</v>
       </c>
       <c r="F8">
-        <v>234</v>
+        <v>128</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -1057,7 +1057,7 @@
         <v>8</v>
       </c>
       <c r="F9">
-        <v>235</v>
+        <v>129</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -1134,7 +1134,7 @@
         <v>9</v>
       </c>
       <c r="F10">
-        <v>236</v>
+        <v>130</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -1216,7 +1216,7 @@
         <v>10</v>
       </c>
       <c r="F11">
-        <v>237</v>
+        <v>131</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -1293,7 +1293,7 @@
         <v>11</v>
       </c>
       <c r="F12">
-        <v>238</v>
+        <v>132</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -1370,7 +1370,7 @@
         <v>12</v>
       </c>
       <c r="F13">
-        <v>239</v>
+        <v>133</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -1447,7 +1447,7 @@
         <v>13</v>
       </c>
       <c r="F14">
-        <v>240</v>
+        <v>134</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -1524,7 +1524,7 @@
         <v>14</v>
       </c>
       <c r="F15">
-        <v>241</v>
+        <v>135</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
         <v>15</v>
       </c>
       <c r="F16">
-        <v>242</v>
+        <v>136</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1683,7 +1683,7 @@
         <v>16</v>
       </c>
       <c r="F17">
-        <v>243</v>
+        <v>137</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1760,7 +1760,7 @@
         <v>17</v>
       </c>
       <c r="F18">
-        <v>244</v>
+        <v>138</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1842,7 +1842,7 @@
         <v>18</v>
       </c>
       <c r="F19">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1884,7 +1884,7 @@
         <v>19</v>
       </c>
       <c r="F20">
-        <v>246</v>
+        <v>140</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1966,7 +1966,7 @@
         <v>20</v>
       </c>
       <c r="F21">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -2043,7 +2043,7 @@
         <v>21</v>
       </c>
       <c r="F22">
-        <v>248</v>
+        <v>142</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -2125,7 +2125,7 @@
         <v>22</v>
       </c>
       <c r="F23">
-        <v>249</v>
+        <v>143</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -2202,7 +2202,7 @@
         <v>23</v>
       </c>
       <c r="F24">
-        <v>250</v>
+        <v>144</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -2284,7 +2284,7 @@
         <v>24</v>
       </c>
       <c r="F25">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -2366,7 +2366,7 @@
         <v>25</v>
       </c>
       <c r="F26">
-        <v>252</v>
+        <v>146</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -2443,7 +2443,7 @@
         <v>26</v>
       </c>
       <c r="F27">
-        <v>253</v>
+        <v>147</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -2525,7 +2525,7 @@
         <v>27</v>
       </c>
       <c r="F28">
-        <v>254</v>
+        <v>148</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -2607,7 +2607,7 @@
         <v>28</v>
       </c>
       <c r="F29">
-        <v>255</v>
+        <v>149</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -2689,7 +2689,7 @@
         <v>29</v>
       </c>
       <c r="F30">
-        <v>256</v>
+        <v>150</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -2766,7 +2766,7 @@
         <v>30</v>
       </c>
       <c r="F31">
-        <v>257</v>
+        <v>151</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -2843,7 +2843,7 @@
         <v>31</v>
       </c>
       <c r="F32">
-        <v>258</v>
+        <v>152</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -2920,7 +2920,7 @@
         <v>32</v>
       </c>
       <c r="F33">
-        <v>259</v>
+        <v>153</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -3002,7 +3002,7 @@
         <v>33</v>
       </c>
       <c r="F34">
-        <v>260</v>
+        <v>154</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -3084,7 +3084,7 @@
         <v>34</v>
       </c>
       <c r="F35">
-        <v>261</v>
+        <v>155</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -3166,7 +3166,7 @@
         <v>35</v>
       </c>
       <c r="F36">
-        <v>262</v>
+        <v>156</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -3243,7 +3243,7 @@
         <v>36</v>
       </c>
       <c r="F37">
-        <v>263</v>
+        <v>157</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>37</v>
       </c>
       <c r="F38">
-        <v>264</v>
+        <v>158</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
         <v>38</v>
       </c>
       <c r="F39">
-        <v>265</v>
+        <v>159</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         <v>39</v>
       </c>
       <c r="F40">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -3556,7 +3556,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>267</v>
+        <v>161</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
@@ -3633,7 +3633,7 @@
         <v>41</v>
       </c>
       <c r="F42">
-        <v>268</v>
+        <v>162</v>
       </c>
       <c r="G42" t="inlineStr">
         <is>

--- a/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_2.xlsx
+++ b/scene_cat_exp_2023.2.2/input_files/1_scenecat_memory_kitchens_2.xlsx
@@ -1861,7 +1861,7 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>stimuli/catch_12_supermarket.jpg</t>
+          <t>stimuli/catch_27.jpg</t>
         </is>
       </c>
     </row>
